--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R6dc5360830004937"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rbc9a67ac360d4be7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R1b230f369c00485f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R8b5217f83c2446ee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -177,7 +177,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8c84e564e9ec4e22"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raa70b4fb5a964edc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -284,6 +284,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R33a2d05eabda4ad1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R308188da483f4622"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R1b230f369c00485f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R8b5217f83c2446ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R476a3ad27d3046e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R5fc07229293440f6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -107,6 +107,9 @@
           <c:tx>
             <c:v>Average Temperature</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Monthly Data'!$A$2:$A$7</c:f>
@@ -177,7 +180,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raa70b4fb5a964edc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e9161a8d7a84c35"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -284,6 +287,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R308188da483f4622"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R09967659b36b4239"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R476a3ad27d3046e4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R5fc07229293440f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R0c71aa31ee7d4e31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R9a6cb6781e504510"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -180,7 +180,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e9161a8d7a84c35"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4777ab3dfe6149e1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R09967659b36b4239"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2532247a71e5417c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R0c71aa31ee7d4e31"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R9a6cb6781e504510"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R35d08b7f8b544be8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rc502d237ca704596"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -180,7 +180,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4777ab3dfe6149e1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb6dd59d4fd4d4223"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2532247a71e5417c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3f1fc78387bd4c59"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R35d08b7f8b544be8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rc502d237ca704596"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R813db4ad4af340ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rcd05487f70dd4e56"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -180,7 +180,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb6dd59d4fd4d4223"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4dd587c643294ba5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3f1fc78387bd4c59"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd9c56ab8cea24f20"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/81_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R813db4ad4af340ab"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rcd05487f70dd4e56"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R018693d2d2c246b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R3941ace5bb9849d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -121,6 +121,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -180,7 +188,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4dd587c643294ba5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1428cd4f98394e58"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +295,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd9c56ab8cea24f20"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R10944c4727e449a9"/>
 </x:worksheet>
 </file>